--- a/xlsx/country_comparison/conjoint_left_ag_b_binary_alla_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_left_ag_b_binary_alla_positive.xlsx
@@ -17,6 +17,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
+        <v>0.590432228283676</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.601344860710855</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.613245033112583</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.587147030185005</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.640070921985816</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.58043758043758</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.590432228283676</v>
       </c>
     </row>
   </sheetData>
